--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2995846.867205707</v>
+        <v>2992366.147366612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7435395.20645524</v>
+        <v>7431855.330112728</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.1037149552101</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>204.8338895197935</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.894826399413851</v>
       </c>
       <c r="U3" t="n">
-        <v>149.2500323771009</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.70987164914099</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>116.3621902967421</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -896,10 +896,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>71.75064242678511</v>
+        <v>397.4730537262127</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>114.5247774121105</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3506603066638</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>20.34810777635736</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.50132893617878</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>322.5806213200727</v>
+        <v>316.4330219534476</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>100.2698474393481</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>160.3211834972523</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>162.9343870659169</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>38.65591760717408</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>153.3019709307487</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -1673,7 +1673,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422874129</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135892</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.20392779543</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453494</v>
+        <v>20.9239119118958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443506</v>
+        <v>48.81858568179592</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046339</v>
+        <v>67.32610467782425</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074579</v>
+        <v>52.47323292810665</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258552</v>
+        <v>38.04694813994638</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546463</v>
+        <v>37.97339019282549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.1663040852319</v>
+        <v>39.72284161259276</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762403</v>
+        <v>50.54167953498489</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419608</v>
+        <v>37.89393170155694</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536801</v>
+        <v>15.73364728272887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982393</v>
+        <v>6.632145647184785</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535124</v>
+        <v>84.7580891527121</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.534710887352</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>106.3740388304715</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3980,10 +3980,10 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
@@ -4037,13 +4037,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>152.0863012039918</v>
+        <v>47.54513555614368</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4189,13 +4189,13 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
         <v>135.2726795246148</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>930.9276958196984</v>
+        <v>407.7147474142305</v>
       </c>
       <c r="C2" t="n">
-        <v>930.9276958196984</v>
+        <v>407.7147474142305</v>
       </c>
       <c r="D2" t="n">
-        <v>930.9276958196984</v>
+        <v>407.7147474142305</v>
       </c>
       <c r="E2" t="n">
-        <v>930.9276958196984</v>
+        <v>407.7147474142305</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900802</v>
+        <v>394.8607129846123</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780834</v>
+        <v>385.7383615130196</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.464273687144</v>
+        <v>550.6768587708644</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687144</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579473</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851943</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.023371792994</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1958.023371792994</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="U2" t="n">
-        <v>1702.270642227592</v>
+        <v>1564.657096592285</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.270642227592</v>
+        <v>1564.657096592285</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.270642227592</v>
+        <v>1193.658061560573</v>
       </c>
       <c r="X2" t="n">
-        <v>1702.270642227592</v>
+        <v>804.2054564936294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1305.779933148194</v>
+        <v>407.7147474142305</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512727</v>
+        <v>89.88557988671069</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K3" t="n">
-        <v>183.7036934455204</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>667.2697793438336</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.09266873969</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="N3" t="n">
-        <v>1718.915558135546</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135546</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851943</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750007</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649876</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T3" t="n">
-        <v>1965.689206649876</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.6339103506477</v>
+        <v>158.0358918549274</v>
       </c>
       <c r="C4" t="n">
-        <v>672.6339103506477</v>
+        <v>158.0358918549274</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0007972531625</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="E4" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="F4" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="G4" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093691</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>381.1479530382841</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.8256998952346</v>
+        <v>158.0358918549274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>925.0360748948226</v>
+        <v>1244.321826208757</v>
       </c>
       <c r="C5" t="n">
-        <v>531.8605733977531</v>
+        <v>1244.321826208757</v>
       </c>
       <c r="D5" t="n">
-        <v>531.8605733977531</v>
+        <v>858.8806974254251</v>
       </c>
       <c r="E5" t="n">
-        <v>531.8605733977531</v>
+        <v>858.8806974254251</v>
       </c>
       <c r="F5" t="n">
-        <v>114.9661349277309</v>
+        <v>441.9862589554028</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703886</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703886</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555677</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1061.633919651424</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="N5" t="n">
-        <v>1587.456809047279</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O5" t="n">
-        <v>2027.496409939608</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851943</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078515</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="T5" t="n">
-        <v>1696.529855637932</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="U5" t="n">
-        <v>1696.529855637932</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="V5" t="n">
-        <v>1696.529855637932</v>
+        <v>1644.816571920154</v>
       </c>
       <c r="W5" t="n">
-        <v>1325.53082060622</v>
+        <v>1644.816571920154</v>
       </c>
       <c r="X5" t="n">
-        <v>1325.53082060622</v>
+        <v>1644.816571920154</v>
       </c>
       <c r="Y5" t="n">
-        <v>1325.53082060622</v>
+        <v>1644.816571920154</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>702.1796386511658</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>551.525408211258</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>421.4364408327383</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>284.989949943626</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>160.5581438267578</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512727</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189927</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189927</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="M6" t="n">
-        <v>475.3448668189927</v>
+        <v>654.7800911138004</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896739</v>
+        <v>1155.946874109251</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580655</v>
+        <v>1657.113657104702</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750007</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649876</v>
+        <v>1885.317658483612</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848785</v>
+        <v>1885.317658483612</v>
       </c>
       <c r="U6" t="n">
-        <v>1788.705394848785</v>
+        <v>1675.254515162254</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1452.714513533321</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1222.597267666608</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1033.29019001662</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>853.9759730921271</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.4152687143821</v>
+        <v>512.0519230961097</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4152687143821</v>
+        <v>341.8468051620989</v>
       </c>
       <c r="D7" t="n">
-        <v>521.7821556168968</v>
+        <v>341.8468051620989</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2233434760993</v>
+        <v>341.8468051620989</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>341.8468051620989</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755449</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703886</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>797.4907148542088</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>512.0519230961097</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>512.0519230961097</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>512.0519230961097</v>
       </c>
       <c r="X7" t="n">
-        <v>862.6232874056834</v>
+        <v>512.0519230961097</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.6232874056834</v>
+        <v>512.0519230961097</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.663050286385</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.487548789315</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="D8" t="n">
-        <v>790.0464200059828</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="E8" t="n">
-        <v>790.0464200059828</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="F8" t="n">
-        <v>373.1519815359605</v>
+        <v>366.9422852060361</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>783.8367236760583</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>847.4773184619364</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.802271768702</v>
+        <v>1563.56903158445</v>
       </c>
       <c r="C11" t="n">
-        <v>1369.56745155882</v>
+        <v>1265.33421137457</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.067004062676</v>
+        <v>974.8337638784255</v>
       </c>
       <c r="E11" t="n">
-        <v>771.4241604664094</v>
+        <v>974.8337638784255</v>
       </c>
       <c r="F11" t="n">
-        <v>609.4835710752452</v>
+        <v>652.8800066955916</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504367</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774169</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V11" t="n">
-        <v>2569.418287764875</v>
+        <v>2741.243401325149</v>
       </c>
       <c r="W11" t="n">
-        <v>2569.418287764875</v>
+        <v>2465.185047580625</v>
       </c>
       <c r="X11" t="n">
-        <v>2274.906363985121</v>
+        <v>2170.673123800869</v>
       </c>
       <c r="Y11" t="n">
-        <v>1973.35633619291</v>
+        <v>1869.123096008659</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082783</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979814</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443722</v>
+        <v>296.5093676443715</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311668</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798492</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757666</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791397</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5224,25 +5224,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852107</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553821</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.81543956037</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.580619350489</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854345</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580775</v>
+        <v>784.7377761534926</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752441</v>
+        <v>462.7840189706587</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>144.5619447458503</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5309,19 +5309,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2951.105909518151</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2703.939781508858</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2427.881427764333</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2133.369503984578</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.369503984578</v>
+        <v>1986.669951879993</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5434,34 +5434,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.523084255381</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924091</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5519,13 +5519,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,31 +5534,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031230018</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222421</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343059</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655151</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924253</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
         <v>2132.883732040978</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755025</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
@@ -6388,22 +6388,22 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6458,37 +6458,37 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473131</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095033</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956128</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746019</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6652,7 +6652,7 @@
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144939</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423753</v>
+        <v>590.5275805474758</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282824</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267676</v>
+        <v>87.68547930209945</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322592</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>789.1557716001066</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1380.246532305433</v>
+        <v>1165.756364896307</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350014</v>
+        <v>1711.757264940887</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987476</v>
+        <v>2354.438084066648</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879805</v>
+        <v>2794.477684958976</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011326</v>
+        <v>3142.665177090498</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590212</v>
+        <v>341.6872565554795</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229143</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.787882623333</v>
+        <v>250.2527302241128</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804395</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913163</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886658</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806369</v>
+        <v>82.44278775748639</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>68.5426273830455</v>
+        <v>151.6460076354899</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>348.3505842337301</v>
       </c>
       <c r="L34" t="n">
-        <v>343.1384592729441</v>
+        <v>556.1017744732002</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515937</v>
+        <v>742.3933528114642</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231885</v>
+        <v>1040.452522330972</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964897</v>
+        <v>1203.15728937268</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381861</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279027</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569842</v>
+        <v>632.4821015969603</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378712</v>
+        <v>515.603631730008</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524185</v>
+        <v>409.6934228967161</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,16 +7011,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
         <v>689.8907773307967</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072659</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462909</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.010538436486</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567326</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803426</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,31 +7190,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229839</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184686</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567326</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296498</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260104</v>
+        <v>1693.618740970509</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1397.884491463573</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1109.884614670374</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666465</v>
+        <v>804.7423417770513</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867574</v>
+        <v>485.2891552971623</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648939</v>
+        <v>169.5676517752989</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7445,10 +7445,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899427</v>
+        <v>2861.290827899428</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857848</v>
+        <v>2587.733044857849</v>
       </c>
       <c r="X41" t="n">
         <v>2295.721691781038</v>
@@ -7485,16 +7485,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1586.170216899326</v>
+        <v>1565.708003466905</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.435967392389</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.43609059919</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>697.293817705868</v>
+        <v>964.8314810666465</v>
       </c>
       <c r="F44" t="n">
-        <v>377.8406312259791</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411552</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.884082136959</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.884082136959</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561691</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2633.907047255343</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.284520786665</v>
+        <v>2459.822307354244</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.273167709855</v>
+        <v>2167.810954277435</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.223710620589</v>
+        <v>1868.761497188169</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>381.8582737663419</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1009.629923393023</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>262.8776925020572</v>
+        <v>156.3375808259618</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705626</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>117.9787259280345</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622976</v>
+        <v>542.46880136407</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671524</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310713</v>
+        <v>164.2633295905293</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507699</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>248.322171394799</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820904</v>
       </c>
       <c r="N6" t="n">
-        <v>583.0340493902083</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>221.8687650935789</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>400.3730943507992</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,13 +8535,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>237.3130400541719</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>295.3946671166309</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9167,7 +9167,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>136.3731801151484</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10902,7 +10902,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,7 +11145,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>287.615168339707</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>158.4130361137532</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>81.76007966328345</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.1950278476837</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>5.901956864682195</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.4882478966989</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>118.0013416284709</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>118.7359040071717</v>
+        <v>223.2770696550198</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>641370.9646083971</v>
+        <v>639566.3217671162</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>641370.9646083971</v>
+        <v>639566.3217671162</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619749.3505393029</v>
+        <v>619749.3505393028</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654488.727851682</v>
+        <v>654488.7278516821</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654488.7278516821</v>
+        <v>654488.727851682</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654488.7278516821</v>
+        <v>654488.727851682</v>
       </c>
     </row>
     <row r="12">
@@ -26320,37 +26320,37 @@
         <v>685262.2767547556</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963057</v>
+        <v>644009.2661963061</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963061</v>
+        <v>644009.2661963056</v>
       </c>
       <c r="G2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="H2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="I2" t="n">
         <v>685262.276754756</v>
       </c>
       <c r="J2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="K2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547555</v>
+        <v>685262.2767547566</v>
       </c>
       <c r="M2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="N2" t="n">
         <v>685262.2767547561</v>
       </c>
       <c r="O2" t="n">
-        <v>646817.2995711737</v>
+        <v>646817.2995711734</v>
       </c>
       <c r="P2" t="n">
         <v>646817.2995711736</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343509</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602636</v>
+        <v>26460.41160941814</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301429</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481239</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015685</v>
+        <v>18983.55983015683</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234899.543198037</v>
+        <v>239807.0746329794</v>
       </c>
       <c r="C4" t="n">
-        <v>234899.543198037</v>
+        <v>239807.0746329794</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26430,22 +26430,22 @@
         <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199696.8077779823</v>
+        <v>199563.4131689275</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>176339.4652237698</v>
+        <v>176339.4652237697</v>
       </c>
       <c r="P4" t="n">
-        <v>176339.4652237698</v>
+        <v>176339.4652237697</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446769</v>
+        <v>60332.6753058834</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206446.8751342184</v>
+        <v>211399.8685622736</v>
       </c>
       <c r="C6" t="n">
-        <v>384442.1722685692</v>
+        <v>381048.8744388235</v>
       </c>
       <c r="D6" t="n">
-        <v>373930.8405398887</v>
+        <v>366194.5513164969</v>
       </c>
       <c r="E6" t="n">
-        <v>283779.1962249061</v>
+        <v>283670.6356708052</v>
       </c>
       <c r="F6" t="n">
-        <v>414232.1273626186</v>
+        <v>414123.5668085169</v>
       </c>
       <c r="G6" t="n">
-        <v>398728.3815979617</v>
+        <v>398728.3815979618</v>
       </c>
       <c r="H6" t="n">
-        <v>427823.3374709763</v>
+        <v>427823.3374709761</v>
       </c>
       <c r="I6" t="n">
-        <v>427823.3374709761</v>
+        <v>427823.337470976</v>
       </c>
       <c r="J6" t="n">
-        <v>199737.6941212264</v>
+        <v>206253.9792757994</v>
       </c>
       <c r="K6" t="n">
-        <v>421583.569068193</v>
+        <v>421583.5690681929</v>
       </c>
       <c r="L6" t="n">
-        <v>382689.2221356045</v>
+        <v>378640.3849251332</v>
       </c>
       <c r="M6" t="n">
-        <v>385092.0605366076</v>
+        <v>384040.3655254196</v>
       </c>
       <c r="N6" t="n">
         <v>427823.3374709761</v>
       </c>
       <c r="O6" t="n">
-        <v>396173.8667346964</v>
+        <v>396072.6957421077</v>
       </c>
       <c r="P6" t="n">
-        <v>415157.4265648531</v>
+        <v>415056.2555722647</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="G2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="I2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="J2" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="F2" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="G2" t="n">
-        <v>130.3599693155843</v>
-      </c>
-      <c r="H2" t="n">
-        <v>130.3599693155843</v>
-      </c>
-      <c r="I2" t="n">
-        <v>130.3599693155843</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,34 +26802,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.8776843078617</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="J4" t="n">
-        <v>917.060736844378</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443781</v>
-      </c>
-      <c r="L4" t="n">
-        <v>856.7828422880688</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014439</v>
-      </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351548</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902036</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769607</v>
+        <v>23.72944978769604</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559196</v>
+        <v>646.8007142757126</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.38608329907277</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>116.0083304093807</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>173.3191472836668</v>
       </c>
       <c r="U3" t="n">
-        <v>58.71247951104374</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.6460668552473</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.71459166976831</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>337.2804855300917</v>
+        <v>11.55807423066415</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>19.05659291701934</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>25.96394130597986</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>213.0137535370908</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>151.238190058668</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>86.45050663680411</v>
+        <v>92.59810600342928</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27904,22 +27904,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>120.611093132175</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668903</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,40 +28956,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082788</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901135</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>98.75804948161408</v>
+        <v>103.2865954513729</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.029833826564</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="L34" t="n">
-        <v>28.92237465268377</v>
+        <v>44.06419228855586</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>5.636002634529177</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
-        <v>5.636002634528154</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30402,20 +30402,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668722</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693149</v>
       </c>
       <c r="O43" t="n">
-        <v>36.24905561692941</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693106</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O46" t="n">
-        <v>36.24905561692941</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>113.1526409043299</v>
+        <v>6.61252922823453</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.38179059470118</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129858</v>
+        <v>450.0816793147582</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129858</v>
+        <v>14.53827799280203</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129858</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>98.02072415387381</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N6" t="n">
-        <v>497.6619365360417</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>134.7854002742642</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>250.071647109874</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>144.92591800486</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>205.7977317832976</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529956</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,7 +36054,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634530013</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101028</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>51.00106726098179</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009073</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800139</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857045</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>597.0613744498251</v>
+        <v>601.5899204195839</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714751</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440495</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>198.691491513374</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694747038</v>
+        <v>209.8496871105758</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288837</v>
+        <v>301.0698682015228</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640774</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873201</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528154</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,7 +37865,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918903</v>
       </c>
       <c r="O43" t="n">
-        <v>200.5973051540083</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>200.5318035203924</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>202.034550438951</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
@@ -38187,13 +38187,13 @@
         <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>200.5973051540083</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
